--- a/Code/WEBAPI/ressources/historique_articles.xlsx
+++ b/Code/WEBAPI/ressources/historique_articles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoufiq/Documents/IT/pfe_brief_my_press_AI-main/pfe_brief_my_press_AI/Code/WEBAPI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taoufiq/Documents/IT/pfe_brief_my_press_AI-main/pfe_brief_my_press_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6B93A1-26B1-1D4B-B686-C7DA98D335CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30852A6-6335-9349-92AE-327C5E664BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{ECDE3C8E-E503-964F-A871-26E4C7BE2FF4}"/>
   </bookViews>
@@ -36,63 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>mediaID</t>
+    <t>article_length</t>
   </si>
   <si>
-    <t>article</t>
+    <t>extractiveSummary_length</t>
   </si>
   <si>
-    <t>extractiveSummary</t>
+    <t>abstractiveSummary_length</t>
   </si>
   <si>
-    <t>abstractiveSummary</t>
-  </si>
-  <si>
-    <t>extractiveAudioBuffer</t>
-  </si>
-  <si>
-    <t>abstractiveAudioBuffer</t>
-  </si>
-  <si>
-    <t>bmp_media1</t>
-  </si>
-  <si>
-    <t>L’intelligence artificielle est en train de transformer divers secteurs, y compris la santé, l’éducation et les transports. Les entreprises investissent massivement dans des technologies telles que les réseaux neuronaux et l’apprentissage automatique.</t>
-  </si>
-  <si>
-    <t>La pandémie de COVID-19 a eu un impact profond sur les économies mondiales, entraînant une récession dans de nombreux pays. Cependant, certains secteurs comme la technologie ont vu une forte demande pendant cette période.</t>
-  </si>
-  <si>
-    <t>La transition vers les énergies renouvelables est devenue une priorité pour de nombreux gouvernements. L’énergie solaire et éolienne sont au cœur des investissements, avec des plans pour réduire les émissions de carbone.</t>
-  </si>
-  <si>
-    <t>Les tendances technologiques pour 2025 incluent la montée de l’Internet des objets (IoT), des villes intelligentes et de l’IA générative, qui devraient changer la façon dont les entreprises interagissent avec les consommateurs.</t>
-  </si>
-  <si>
-    <t>Les tendances 2025 incluent l’IoT, les villes intelligentes et l’IA générative, modifiant l’interaction entre les entreprises et les consommateurs.</t>
-  </si>
-  <si>
-    <t>Les énergies renouvelables, notamment solaire et éolienne, dominent les investissements pour réduire les émissions de carbone.</t>
-  </si>
-  <si>
-    <t>La pandémie de COVID-19 a causé une récession mondiale, mais certains secteurs comme la technologie ont connu une hausse.</t>
-  </si>
-  <si>
-    <t>L’IA transforme plusieurs secteurs comme la santé, l’éducation et les transports, avec des investissements majeurs dans les technologies avancées.</t>
-  </si>
-  <si>
-    <t>L’intelligence artificielle est utilisée dans des secteurs variés, bouleversant les industries grâce aux réseaux neuronaux et à l’apprentissage automatique.</t>
-  </si>
-  <si>
-    <t>La crise sanitaire du COVID-19 a bouleversé l’économie mondiale, entraînant une récession dans plusieurs pays, mais aussi une forte demande pour la technologie.</t>
-  </si>
-  <si>
-    <t>La transition vers les énergies renouvelables est cruciale, avec des investissements massifs dans l’énergie solaire et éolienne pour lutter contre le changement climatique.</t>
-  </si>
-  <si>
-    <t>Les technologies émergentes pour 2025, comme l’Internet des objets et l’IA générative, façonneront les futurs modèles d’interaction commerciale.</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -478,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ADC674-43F4-3D42-A063-4F7370D830BD}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,101 +451,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>322</v>
+      </c>
+      <c r="B2">
+        <v>257</v>
+      </c>
+      <c r="C2">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>465</v>
+      </c>
+      <c r="B3">
+        <v>309</v>
+      </c>
+      <c r="C3">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>594</v>
+      </c>
+      <c r="B4">
+        <v>313</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>791</v>
+      </c>
+      <c r="B5">
+        <v>427</v>
+      </c>
+      <c r="C5">
+        <v>39</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6">
+        <v>233</v>
+      </c>
+      <c r="B6">
+        <v>171</v>
+      </c>
+      <c r="C6">
+        <v>51</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -598,9 +542,15 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7">
+        <v>862</v>
+      </c>
+      <c r="B7">
+        <v>513</v>
+      </c>
+      <c r="C7">
+        <v>57</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -608,29 +558,49 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8">
+        <v>755</v>
+      </c>
+      <c r="B8">
+        <v>476</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>406</v>
+      </c>
+      <c r="B9">
+        <v>282</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10">
+        <v>420</v>
+      </c>
+      <c r="B10">
+        <v>279</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -638,9 +608,15 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11">
+        <v>590</v>
+      </c>
+      <c r="B11">
+        <v>381</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -648,9 +624,15 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12">
+        <v>311</v>
+      </c>
+      <c r="B12">
+        <v>182</v>
+      </c>
+      <c r="C12">
+        <v>49</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -658,9 +640,15 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13">
+        <v>1091</v>
+      </c>
+      <c r="B13">
+        <v>688</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -668,9 +656,15 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14">
+        <v>31</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -678,9 +672,15 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15">
+        <v>454</v>
+      </c>
+      <c r="B15">
+        <v>241</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -688,9 +688,15 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16">
+        <v>599</v>
+      </c>
+      <c r="B16">
+        <v>359</v>
+      </c>
+      <c r="C16">
+        <v>67</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -698,9 +704,15 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17">
+        <v>306</v>
+      </c>
+      <c r="B17">
+        <v>144</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -708,9 +720,15 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18">
+        <v>676</v>
+      </c>
+      <c r="B18">
+        <v>506</v>
+      </c>
+      <c r="C18">
+        <v>43</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -718,9 +736,15 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19">
+        <v>648</v>
+      </c>
+      <c r="B19">
+        <v>365</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -728,9 +752,15 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20">
+        <v>391</v>
+      </c>
+      <c r="B20">
+        <v>189</v>
+      </c>
+      <c r="C20">
+        <v>69</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -738,9 +768,15 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21">
+        <v>3063</v>
+      </c>
+      <c r="B21">
+        <v>1508</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -748,9 +784,15 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22">
+        <v>479</v>
+      </c>
+      <c r="B22">
+        <v>341</v>
+      </c>
+      <c r="C22">
+        <v>49</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -758,9 +800,15 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23">
+        <v>644</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -768,9 +816,15 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24">
+        <v>1114</v>
+      </c>
+      <c r="B24">
+        <v>665</v>
+      </c>
+      <c r="C24">
+        <v>65</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -778,9 +832,15 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25">
+        <v>437</v>
+      </c>
+      <c r="B25">
+        <v>306</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -788,9 +848,15 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26">
+        <v>2621</v>
+      </c>
+      <c r="B26">
+        <v>1421</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -798,9 +864,15 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27">
+        <v>493</v>
+      </c>
+      <c r="B27">
+        <v>283</v>
+      </c>
+      <c r="C27">
+        <v>68</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -808,9 +880,15 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28">
+        <v>475</v>
+      </c>
+      <c r="B28">
+        <v>360</v>
+      </c>
+      <c r="C28">
+        <v>49</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -818,9 +896,15 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29">
+        <v>489</v>
+      </c>
+      <c r="B29">
+        <v>332</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -828,9 +912,15 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30">
+        <v>509</v>
+      </c>
+      <c r="B30">
+        <v>349</v>
+      </c>
+      <c r="C30">
+        <v>69</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -838,9 +928,15 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31">
+        <v>525</v>
+      </c>
+      <c r="B31">
+        <v>379</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -848,9 +944,15 @@
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32">
+        <v>473</v>
+      </c>
+      <c r="B32">
+        <v>328</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -858,9 +960,15 @@
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33">
+        <v>471</v>
+      </c>
+      <c r="B33">
+        <v>337</v>
+      </c>
+      <c r="C33">
+        <v>56</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -868,15 +976,318 @@
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34">
+        <v>477</v>
+      </c>
+      <c r="B34">
+        <v>335</v>
+      </c>
+      <c r="C34">
+        <v>63</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>806</v>
+      </c>
+      <c r="B35">
+        <v>476</v>
+      </c>
+      <c r="C35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1261</v>
+      </c>
+      <c r="B36">
+        <v>802</v>
+      </c>
+      <c r="C36">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1026</v>
+      </c>
+      <c r="B37">
+        <v>604</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>462</v>
+      </c>
+      <c r="B38">
+        <v>330</v>
+      </c>
+      <c r="C38">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>465</v>
+      </c>
+      <c r="B39">
+        <v>351</v>
+      </c>
+      <c r="C39">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>521</v>
+      </c>
+      <c r="B40">
+        <v>390</v>
+      </c>
+      <c r="C40">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>876</v>
+      </c>
+      <c r="B41">
+        <v>627</v>
+      </c>
+      <c r="C41">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1181</v>
+      </c>
+      <c r="B42">
+        <v>751</v>
+      </c>
+      <c r="C42">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>495</v>
+      </c>
+      <c r="B43">
+        <v>338</v>
+      </c>
+      <c r="C43">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>566</v>
+      </c>
+      <c r="B45">
+        <v>395</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>454</v>
+      </c>
+      <c r="B46">
+        <v>316</v>
+      </c>
+      <c r="C46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>566</v>
+      </c>
+      <c r="B47">
+        <v>386</v>
+      </c>
+      <c r="C47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>547</v>
+      </c>
+      <c r="B48">
+        <v>403</v>
+      </c>
+      <c r="C48">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>584</v>
+      </c>
+      <c r="B49">
+        <v>407</v>
+      </c>
+      <c r="C49">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>505</v>
+      </c>
+      <c r="B50">
+        <v>367</v>
+      </c>
+      <c r="C50">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>685</v>
+      </c>
+      <c r="B51">
+        <v>405</v>
+      </c>
+      <c r="C51">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1288</v>
+      </c>
+      <c r="B52">
+        <v>650</v>
+      </c>
+      <c r="C52">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>549</v>
+      </c>
+      <c r="B53">
+        <v>392</v>
+      </c>
+      <c r="C53">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>853</v>
+      </c>
+      <c r="B54">
+        <v>523</v>
+      </c>
+      <c r="C54">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>581</v>
+      </c>
+      <c r="B55">
+        <v>365</v>
+      </c>
+      <c r="C55">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>551</v>
+      </c>
+      <c r="B56">
+        <v>382</v>
+      </c>
+      <c r="C56">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>569</v>
+      </c>
+      <c r="B57">
+        <v>345</v>
+      </c>
+      <c r="C57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>442</v>
+      </c>
+      <c r="B58">
+        <v>306</v>
+      </c>
+      <c r="C58">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>792</v>
+      </c>
+      <c r="B59">
+        <v>549</v>
+      </c>
+      <c r="C59">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>865</v>
+      </c>
+      <c r="B60">
+        <v>493</v>
+      </c>
+      <c r="C60">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>669</v>
+      </c>
+      <c r="B61">
+        <v>423</v>
+      </c>
+      <c r="C61">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
